--- a/Labyrinth2/地图方案二/labyrinth2.xlsx
+++ b/Labyrinth2/地图方案二/labyrinth2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,8 +90,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,12 +111,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,7 +140,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,113 +240,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,13 +256,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,25 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,25 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,109 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,21 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -502,6 +487,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,7 +774,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -814,6 +814,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1116,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:11">
@@ -1321,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1365,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1388,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1435,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1461,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1520,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:11">
@@ -1543,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -1598,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1625,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:11">
@@ -1657,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="K16" s="2">
         <v>2</v>
@@ -1709,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
@@ -1721,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -1735,23 +1742,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:K18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
